--- a/similarities/split_global/harmonic_similarity_timestamps_195.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_195.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['Bb:7', 'Eb', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['F:7', 'Bb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:00:23.420000', '0:00:31.440000')]</t>
+          <t>('0:00:05.440000', '0:00:14.410000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:42.520000', '0:00:46.360000'), ('0:00:22.100000', '0:00:29.560000')]</t>
+          <t>('0:00:30.410000', '0:00:42.610000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=23.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=22.1']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=30.41</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>['G', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
+          <t>('0:00:22.020589', '0:00:24.598004')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:18.660000', '0:00:20.740000')]</t>
+          <t>('0:02:18.020000', '0:02:22.340000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-35#t=12.851927']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=18.66']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_27</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'E:min7', 'A:7', 'D']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:05.420000', '0:01:11.700000')]</t>
+          <t>('0:00:00.380000', '0:00:08.900000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:06.700000', '0:00:16.050000')]</t>
+          <t>('0:00:25.260000', '0:00:45.540000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=65.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-27#t=6.7']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=25.26</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C#:min', 'F#:min', 'A:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'Ab:min']]</t>
+          <t>['A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.923469', '0:00:21.966099')]</t>
+          <t>('0:00:41.080000', '0:00:43.260000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:15.682000', '0:00:18.253000')]</t>
+          <t>('0:00:14.168000', '0:00:18.573000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-271#t=11.923469']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=41.08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=15.682']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C#', 'F#/5', 'C#']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:04.250000', '0:00:09.179000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:08.600000', '0:00:11.260000')]</t>
+          <t>('0:00:01.206300', '0:01:58.925813')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=4.25</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=8.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_212</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['D', 'A', 'D']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:18.920000', '0:00:21.940000')]</t>
+          <t>('0:00:09.408834', '0:00:16.560579')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:04:10.300000', '0:04:17.660000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=9.408834</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:01:54.520000', '0:01:55.980000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:00:13.336043', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=114.52</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>schubert-winterreise_90</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:03.884104', '0:00:23.632675')]</t>
+          <t>('0:02:34.760000', '0:02:39.840000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-43#t=3.884104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['E', 'A/3', 'E/5']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:23.200000', '0:01:31.140000')]</t>
+          <t>('0:00:33.814625', '0:00:37.738798')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:10.780000', '0:00:16.280000')]</t>
+          <t>('0:00:47.176000', '0:00:53.016000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=33.814625</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:15.300000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:07.600000', '0:00:24.380000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:36.500000', '0:00:41.660000')]</t>
+          <t>('0:00:15.060000', '0:00:23.160000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:32.040000', '0:01:44.400000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=36.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_62</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C/3', 'F', 'C/3']]</t>
+          <t>['Ab', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:16.585782', '0:01:18.064810')]</t>
+          <t>('0:00:07.043000', '0:00:10.286000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:21.577709', '0:00:29.878843')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-62#t=21.577709</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F/3', 'Bb', 'C:maj', 'F:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:51.315598', '0:00:59.809365')]</t>
+          <t>('0:00:07.400000', '0:00:19.820000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:03.461000', '0:01:06.732000')]</t>
+          <t>('0:00:24.580000', '0:00:32.940000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=51.315598']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=7.4</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:13.260000')]</t>
+          <t>('0:00:10.560000', '0:00:17.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000')]</t>
+          <t>('0:00:10.780000', '0:00:16.280000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=10.78</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['E', 'E:7/3', 'A']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:05.110000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:20.410362', '0:00:24.856984')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
